--- a/ITI/SVCM/svcm-example-conceptmap.xlsx
+++ b/ITI/SVCM/svcm-example-conceptmap.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T07:19:57-05:00</t>
+    <t>2022-10-21T14:30:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/SVCM/svcm-example-conceptmap.xlsx
+++ b/ITI/SVCM/svcm-example-conceptmap.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T14:30:40-05:00</t>
+    <t>2023-08-02T12:56:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -245,10 +245,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
